--- a/wordExcel/dytest.xlsx
+++ b/wordExcel/dytest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20640" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
-    <t>be unequal to</t>
+    <t>come true</t>
   </si>
   <si>
-    <t>be unfit for</t>
+    <t>Mid-Autumn Festival</t>
   </si>
   <si>
-    <t>the Opera House</t>
+    <t>walk by</t>
+  </si>
+  <si>
+    <t>what time is it</t>
+  </si>
+  <si>
+    <t>what would you like</t>
   </si>
 </sst>
 </file>
@@ -33,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,48 +56,65 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,17 +128,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,64 +152,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,6 +397,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -421,39 +474,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,32 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -506,145 +505,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -652,9 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -970,24 +967,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -995,6 +992,448 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/wordExcel/dytest.xlsx
+++ b/wordExcel/dytest.xlsx
@@ -17,21 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
-    <t>come true</t>
+    <t>drink to sb./sth.</t>
   </si>
   <si>
-    <t>Mid-Autumn Festival</t>
+    <t>associate</t>
   </si>
   <si>
-    <t>walk by</t>
-  </si>
-  <si>
-    <t>what time is it</t>
-  </si>
-  <si>
-    <t>what would you like</t>
+    <t>West Hill</t>
   </si>
 </sst>
 </file>
@@ -39,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,7 +55,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,32 +83,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,14 +138,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -152,6 +153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -159,39 +168,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,31 +200,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,151 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +403,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,31 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,97 +499,112 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,46 +613,31 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,19 +961,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A149"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -994,14 +988,10 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1"/>
@@ -1431,9 +1421,6 @@
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
